--- a/data/trans_orig/P78DS5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78DS5_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E3F719D-2093-4D6D-B114-2935B95BF11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1363596-93B2-46C7-82E0-768A05FCCFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F7EC5320-004E-48DC-AE22-8B9786A07F4D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1EFA8860-5A95-4685-A16D-05041D676052}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -83,7 +83,7 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,45%</t>
+    <t>0,44%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -107,7 +107,7 @@
     <t>99,91%</t>
   </si>
   <si>
-    <t>99,55%</t>
+    <t>99,56%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -125,61 +125,61 @@
     <t>0,03%</t>
   </si>
   <si>
-    <t>0,22%</t>
+    <t>0,19%</t>
   </si>
   <si>
     <t>0,02%</t>
   </si>
   <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>99,97%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>99,92%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -594,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F4FFBD-DB1D-4633-8A6E-2B714D37C7D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1A6E03-74D6-43AF-8267-98AD28A77205}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1049,7 +1049,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>19</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>21</v>
@@ -1112,7 +1112,7 @@
         <v>19</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>21</v>
@@ -1189,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1198,13 +1198,13 @@
         <v>1425</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -1219,7 +1219,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1237,7 +1237,7 @@
         <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>21</v>
@@ -1249,10 +1249,10 @@
         <v>3617956</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -1261,13 +1261,13 @@
         <v>8347</v>
       </c>
       <c r="N14" s="7">
-        <v>6884246</v>
+        <v>6884245</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1312,7 +1312,7 @@
         <v>8349</v>
       </c>
       <c r="N15" s="7">
-        <v>6885671</v>
+        <v>6885670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>21</v>

--- a/data/trans_orig/P78DS5_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P78DS5_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1363596-93B2-46C7-82E0-768A05FCCFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2534A183-F1C4-46E2-96AF-4FA34D2029E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1EFA8860-5A95-4685-A16D-05041D676052}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{74818DA5-6D3A-415B-8E09-D5C9E7976284}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -594,7 +594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D1A6E03-74D6-43AF-8267-98AD28A77205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E166E2-A1C4-4F98-9080-7B0030D345E5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
